--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_5_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_5_19.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>747272.664709201</v>
+        <v>777328.8895231138</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189902.9539564204</v>
+        <v>516314.6540548914</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9102620.618728807</v>
+        <v>9613100.293655321</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9038068.780484976</v>
+        <v>8756676.973278133</v>
       </c>
     </row>
     <row r="11">
@@ -665,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>130.4588318996849</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>243.2386572690347</v>
       </c>
     </row>
     <row r="3">
@@ -738,25 +740,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883154</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231965</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>156.5912426325231</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>196.8897623984489</v>
+        <v>136.3381523557874</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8879277888686</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -823,13 +825,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>7.203367682519121</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -859,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>54.47555601903363</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>64.77622655147803</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -941,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>353.5759586385877</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1060,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>18.3768222575565</v>
+        <v>63.57678144609342</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1072,10 +1074,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>127.7992048259265</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1148,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -1193,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>13.91132232162457</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1272,7 +1274,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>251.6949831609193</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -1303,16 +1305,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>155.3197306044664</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>200.5196897930034</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1373,13 +1375,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1415,25 +1417,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>130.1024780662195</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>339.0399185806816</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1467,7 +1469,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1528,16 +1530,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>18.3768222575565</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>28.1011571445228</v>
       </c>
       <c r="G13" t="n">
         <v>167.3098022590509</v>
@@ -1546,10 +1548,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1604,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1652,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>81.12200652863734</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>65.94182778688828</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1706,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1768,22 +1770,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>60.38235645081242</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,13 +1821,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1844,25 +1846,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>397.6290279809132</v>
       </c>
       <c r="H17" t="n">
-        <v>108.0481078432937</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,22 +1891,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1941,7 +1943,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2050,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="T19" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2818742419777</v>
@@ -2087,13 +2089,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>84.95149223441572</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
@@ -2126,13 +2128,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>47.63599636899051</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2141,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2180,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2236,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>83.59830597394804</v>
       </c>
       <c r="C22" t="n">
-        <v>59.66385641544548</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2330,10 +2332,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>394.2018941786171</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2372,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>39.22879305694475</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2485,19 +2487,19 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>43.31785343913975</v>
       </c>
       <c r="H25" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2518,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.37682225755638</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2539,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2552,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>133.5738774143953</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2564,16 +2566,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>277.6382181504154</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,22 +2608,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2719,22 +2721,22 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>18.3768222575565</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923382</v>
+        <v>9.764863467406323</v>
       </c>
       <c r="J28" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2770,13 +2772,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2798,19 +2800,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>287.0718939092927</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2846,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>7.908730564555825</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2855,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2950,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>162.336490673523</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -3007,16 +3009,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3032,19 +3034,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>261.389335340349</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>257.6053693707881</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3184,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>101.780687729549</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3244,16 +3246,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>128.7835007017902</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3275,16 +3277,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>128.0041052504326</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>48.4326051737889</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3365,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3427,22 +3429,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>48.9140155965814</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,16 +3477,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>128.7835007017899</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3503,22 +3505,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>333.4054520543809</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3554,13 +3556,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>47.65590684750287</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3569,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3602,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3718,16 +3720,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>128.7835007017899</v>
       </c>
       <c r="Y40" t="n">
-        <v>155.2114886365804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>275.4805812731078</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3752,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>269.5134569480836</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3785,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3837,7 +3839,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>16.88986550434897</v>
       </c>
       <c r="H43" t="n">
-        <v>92.00803688215797</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3955,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3964,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3983,13 +3985,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4022,22 +4024,22 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>183.771339154398</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4068,13 +4070,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.5310119231965</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H45" t="n">
-        <v>104.3883541553076</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250818</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,22 +4103,22 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229331</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S45" t="n">
-        <v>156.5912426325231</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T45" t="n">
-        <v>196.8897623984489</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609193</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -4135,19 +4137,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>43.31785343913925</v>
+        <v>1.388221847213899</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4198,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1749.341643278937</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="C2" t="n">
-        <v>1749.341643278937</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>22.09252109618842</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>142.8373253438683</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>344.9085595412868</v>
       </c>
       <c r="M2" t="n">
-        <v>1362.238747280443</v>
+        <v>586.3582880173956</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>817.0829279823541</v>
       </c>
       <c r="O2" t="n">
-        <v>2238.843319642689</v>
+        <v>989.7620250901062</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>1099.465256491931</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T2" t="n">
-        <v>2334.166315984416</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U2" t="n">
-        <v>2080.404530622508</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V2" t="n">
-        <v>1749.341643278937</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="W2" t="n">
-        <v>1749.341643278937</v>
+        <v>825.6800813726991</v>
       </c>
       <c r="X2" t="n">
-        <v>1749.341643278937</v>
+        <v>546.7341079359765</v>
       </c>
       <c r="Y2" t="n">
-        <v>1749.341643278937</v>
+        <v>301.0384945329111</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>355.783005382771</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>181.3299761016439</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>181.3299761016439</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>268.2479876888894</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>367.8501726635176</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>641.2451212288495</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>907.7419348121333</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>966.9107493995355</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.714576167582</v>
+        <v>966.9107493995355</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>731.7586411677928</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>731.7586411677928</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>731.7586411677928</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>523.9983424028389</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>191.7165880308942</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>191.7165880308942</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>58.70189726492713</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>107.6904745160686</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>160.9488293168851</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>194.1252445754622</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124028</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="T4" t="n">
-        <v>108.9687959810045</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="U4" t="n">
-        <v>53.94298182036445</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>198.9927170031358</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>952.5674858910851</v>
+        <v>1017.998017761265</v>
       </c>
       <c r="C5" t="n">
-        <v>952.5674858910851</v>
+        <v>1017.998017761265</v>
       </c>
       <c r="D5" t="n">
-        <v>952.5674858910851</v>
+        <v>1017.998017761265</v>
       </c>
       <c r="E5" t="n">
-        <v>952.5674858910851</v>
+        <v>1017.998017761265</v>
       </c>
       <c r="F5" t="n">
         <v>952.5674858910851</v>
@@ -4571,13 +4573,13 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W5" t="n">
-        <v>1309.714918859356</v>
+        <v>2168.202948062278</v>
       </c>
       <c r="X5" t="n">
-        <v>952.5674858910851</v>
+        <v>1794.737189801198</v>
       </c>
       <c r="Y5" t="n">
-        <v>952.5674858910851</v>
+        <v>1404.597857825387</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4644,19 +4646,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4668,19 +4670,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4708,19 +4710,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="E7" t="n">
-        <v>709.5665374816297</v>
+        <v>663.9100130487641</v>
       </c>
       <c r="F7" t="n">
-        <v>562.6765899837193</v>
+        <v>517.0200655508537</v>
       </c>
       <c r="G7" t="n">
-        <v>393.6767897220517</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1261.831893336434</v>
+        <v>593.1972104235191</v>
       </c>
       <c r="C8" t="n">
-        <v>892.8693763960225</v>
+        <v>593.1972104235191</v>
       </c>
       <c r="D8" t="n">
-        <v>534.603677789272</v>
+        <v>593.1972104235191</v>
       </c>
       <c r="E8" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="F8" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4808,7 +4810,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W8" t="n">
-        <v>1648.431733400556</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X8" t="n">
-        <v>1648.431733400556</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="Y8" t="n">
-        <v>1648.431733400556</v>
+        <v>722.2873163082934</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4881,25 +4883,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>348.0202652891861</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="C10" t="n">
-        <v>348.0202652891861</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="D10" t="n">
-        <v>348.0202652891861</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="E10" t="n">
-        <v>348.0202652891861</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="F10" t="n">
-        <v>348.0202652891861</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="G10" t="n">
-        <v>348.0202652891861</v>
+        <v>393.6767897220518</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4987,25 +4989,25 @@
         <v>550.5654064942401</v>
       </c>
       <c r="S10" t="n">
-        <v>348.0202652891861</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T10" t="n">
-        <v>348.0202652891861</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U10" t="n">
-        <v>348.0202652891861</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="V10" t="n">
-        <v>348.0202652891861</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="W10" t="n">
-        <v>348.0202652891861</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="X10" t="n">
-        <v>348.0202652891861</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="Y10" t="n">
-        <v>348.0202652891861</v>
+        <v>550.5654064942401</v>
       </c>
     </row>
     <row r="11">
@@ -5015,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.9054987607761</v>
+        <v>1577.945354755378</v>
       </c>
       <c r="C11" t="n">
-        <v>53.94298182036445</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D11" t="n">
-        <v>53.94298182036445</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E11" t="n">
-        <v>53.94298182036445</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F11" t="n">
         <v>53.94298182036445</v>
@@ -5045,7 +5047,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5063,28 +5065,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T11" t="n">
-        <v>2510.703757037383</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U11" t="n">
-        <v>2256.941971675474</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V11" t="n">
-        <v>1925.879084331904</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W11" t="n">
-        <v>1573.11042906179</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X11" t="n">
-        <v>1199.64467080071</v>
+        <v>2354.684526795312</v>
       </c>
       <c r="Y11" t="n">
-        <v>809.505338824898</v>
+        <v>1964.5451948195</v>
       </c>
     </row>
     <row r="12">
@@ -5094,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G12" t="n">
         <v>221.4284102424006</v>
@@ -5136,25 +5138,25 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P12" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W12" t="n">
         <v>1572.325111207638</v>
@@ -5176,25 +5178,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="C13" t="n">
-        <v>728.1289842064342</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D13" t="n">
-        <v>728.1289842064342</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E13" t="n">
-        <v>709.5665374816297</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="F13" t="n">
-        <v>562.6765899837193</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G13" t="n">
-        <v>393.6767897220517</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H13" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I13" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
         <v>53.94298182036445</v>
@@ -5252,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>781.1711973675267</v>
+        <v>1595.875667274026</v>
       </c>
       <c r="C14" t="n">
-        <v>412.2086804271149</v>
+        <v>1595.875667274026</v>
       </c>
       <c r="D14" t="n">
-        <v>53.94298182036445</v>
+        <v>1595.875667274026</v>
       </c>
       <c r="E14" t="n">
-        <v>53.94298182036445</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F14" t="n">
-        <v>53.94298182036445</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J14" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5300,28 +5302,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T14" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U14" t="n">
-        <v>2615.207670282225</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V14" t="n">
-        <v>2284.144782938654</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="W14" t="n">
-        <v>1931.37612766854</v>
+        <v>1595.875667274026</v>
       </c>
       <c r="X14" t="n">
-        <v>1557.91036940746</v>
+        <v>1595.875667274026</v>
       </c>
       <c r="Y14" t="n">
-        <v>1167.771037431648</v>
+        <v>1595.875667274026</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5354,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J15" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K15" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L15" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M15" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N15" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O15" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018223</v>
@@ -5410,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C16" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D16" t="n">
-        <v>53.94298182036445</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E16" t="n">
-        <v>53.94298182036445</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="F16" t="n">
-        <v>53.94298182036445</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G16" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
@@ -5467,19 +5469,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U16" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V16" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W16" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X16" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y16" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="17">
@@ -5489,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2105.048665729205</v>
+        <v>936.2491605982752</v>
       </c>
       <c r="C17" t="n">
-        <v>1736.086148788794</v>
+        <v>936.2491605982752</v>
       </c>
       <c r="D17" t="n">
-        <v>1377.820450182043</v>
+        <v>936.2491605982752</v>
       </c>
       <c r="E17" t="n">
-        <v>992.032197583799</v>
+        <v>936.2491605982752</v>
       </c>
       <c r="F17" t="n">
-        <v>581.0462927941915</v>
+        <v>936.2491605982752</v>
       </c>
       <c r="G17" t="n">
-        <v>163.0824846923783</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533135</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073312</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224068</v>
       </c>
       <c r="M17" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5537,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T17" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U17" t="n">
-        <v>2478.514423990285</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V17" t="n">
-        <v>2478.514423990285</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="W17" t="n">
-        <v>2478.514423990285</v>
+        <v>1309.714918859355</v>
       </c>
       <c r="X17" t="n">
-        <v>2105.048665729205</v>
+        <v>936.2491605982752</v>
       </c>
       <c r="Y17" t="n">
-        <v>2105.048665729205</v>
+        <v>936.2491605982752</v>
       </c>
     </row>
     <row r="18">
@@ -5568,73 +5570,73 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M18" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O18" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P18" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y18" t="n">
         <v>1156.713312237151</v>
@@ -5647,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
@@ -5698,7 +5700,7 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064342</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="T19" t="n">
         <v>632.5337622027571</v>
@@ -5710,13 +5712,13 @@
         <v>343.360151857325</v>
       </c>
       <c r="W19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="20">
@@ -5726,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1194.175505447095</v>
+        <v>1494.154169929768</v>
       </c>
       <c r="C20" t="n">
-        <v>825.2129885066836</v>
+        <v>1125.191652989356</v>
       </c>
       <c r="D20" t="n">
-        <v>466.9472898999331</v>
+        <v>766.9259543826058</v>
       </c>
       <c r="E20" t="n">
-        <v>466.9472898999331</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F20" t="n">
-        <v>466.9472898999331</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G20" t="n">
         <v>381.1377017843616</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533135</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073312</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224068</v>
       </c>
       <c r="M20" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N20" t="n">
         <v>1836.345445977174</v>
@@ -5768,34 +5770,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P20" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018223</v>
+        <v>2649.031922968737</v>
       </c>
       <c r="S20" t="n">
-        <v>2697.149091018223</v>
+        <v>2472.854435282907</v>
       </c>
       <c r="T20" t="n">
-        <v>2697.149091018223</v>
+        <v>2254.219768254969</v>
       </c>
       <c r="U20" t="n">
-        <v>2697.149091018223</v>
+        <v>2254.219768254969</v>
       </c>
       <c r="V20" t="n">
-        <v>2697.149091018223</v>
+        <v>2254.219768254969</v>
       </c>
       <c r="W20" t="n">
-        <v>2344.380435748109</v>
+        <v>2254.219768254969</v>
       </c>
       <c r="X20" t="n">
-        <v>1970.914677487029</v>
+        <v>1880.75400999389</v>
       </c>
       <c r="Y20" t="n">
-        <v>1580.775345511217</v>
+        <v>1880.75400999389</v>
       </c>
     </row>
     <row r="21">
@@ -5826,13 +5828,13 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K21" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L21" t="n">
         <v>713.8062203571349</v>
@@ -5884,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C22" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D22" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E22" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F22" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K22" t="n">
         <v>110.2451748866326</v>
@@ -5917,43 +5919,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N22" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064343</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064343</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T22" t="n">
-        <v>728.1289842064343</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="U22" t="n">
-        <v>728.1289842064343</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="V22" t="n">
-        <v>728.1289842064343</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="W22" t="n">
-        <v>728.1289842064343</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="X22" t="n">
-        <v>728.1289842064343</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="Y22" t="n">
-        <v>728.1289842064343</v>
+        <v>138.3857151273827</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>863.1126181035247</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="C23" t="n">
-        <v>863.1126181035247</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D23" t="n">
-        <v>863.1126181035247</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E23" t="n">
-        <v>863.1126181035247</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F23" t="n">
-        <v>452.1267133139172</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
         <v>881.2824271224079</v>
@@ -6005,34 +6007,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U23" t="n">
-        <v>2697.149091018223</v>
+        <v>2657.524047526359</v>
       </c>
       <c r="V23" t="n">
-        <v>2366.086203674652</v>
+        <v>2326.461160182788</v>
       </c>
       <c r="W23" t="n">
-        <v>2013.317548404538</v>
+        <v>1973.692504912674</v>
       </c>
       <c r="X23" t="n">
-        <v>1639.851790143458</v>
+        <v>1600.226746651594</v>
       </c>
       <c r="Y23" t="n">
-        <v>1249.712458167646</v>
+        <v>1210.087414675782</v>
       </c>
     </row>
     <row r="24">
@@ -6042,43 +6044,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K24" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L24" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M24" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N24" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O24" t="n">
         <v>2188.831293537797</v>
@@ -6087,22 +6089,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207638</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2678.586644293418</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="C25" t="n">
-        <v>2678.586644293418</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="D25" t="n">
-        <v>2678.586644293418</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="E25" t="n">
-        <v>2678.586644293418</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="F25" t="n">
-        <v>2531.696696795508</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="G25" t="n">
-        <v>2362.696896533841</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H25" t="n">
-        <v>2204.948523966371</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I25" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K25" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>2206.83913925958</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>2351.73700797761</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N25" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O25" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P25" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q25" t="n">
-        <v>2678.586644293418</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>2678.586644293418</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>2678.586644293418</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>2678.586644293418</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>2678.586644293418</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V25" t="n">
-        <v>2678.586644293418</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W25" t="n">
-        <v>2678.586644293418</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X25" t="n">
-        <v>2678.586644293418</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y25" t="n">
-        <v>2678.586644293418</v>
+        <v>279.3468541648867</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1231.905553626649</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="C26" t="n">
-        <v>1231.905553626649</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D26" t="n">
-        <v>873.6398550198983</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E26" t="n">
-        <v>487.851602421654</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F26" t="n">
-        <v>487.851602421654</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G26" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H26" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I26" t="n">
         <v>53.94298182036445</v>
@@ -6254,22 +6256,22 @@
         <v>2520.971603332393</v>
       </c>
       <c r="T26" t="n">
-        <v>2302.336936304455</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U26" t="n">
-        <v>2302.336936304455</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V26" t="n">
-        <v>1971.274048960885</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W26" t="n">
-        <v>1618.50539369077</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="X26" t="n">
-        <v>1618.50539369077</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="Y26" t="n">
-        <v>1618.50539369077</v>
+        <v>2130.832271356581</v>
       </c>
     </row>
     <row r="27">
@@ -6306,22 +6308,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K27" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L27" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M27" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N27" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O27" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P27" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018223</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>728.1289842064342</v>
+        <v>2032.826587084078</v>
       </c>
       <c r="C28" t="n">
-        <v>728.1289842064342</v>
+        <v>2032.826587084078</v>
       </c>
       <c r="D28" t="n">
-        <v>728.1289842064342</v>
+        <v>2032.826587084078</v>
       </c>
       <c r="E28" t="n">
-        <v>709.5665374816297</v>
+        <v>2032.826587084078</v>
       </c>
       <c r="F28" t="n">
-        <v>562.6765899837193</v>
+        <v>2032.826587084078</v>
       </c>
       <c r="G28" t="n">
-        <v>393.6767897220517</v>
+        <v>2032.826587084078</v>
       </c>
       <c r="H28" t="n">
-        <v>235.9284171545819</v>
+        <v>2032.826587084078</v>
       </c>
       <c r="I28" t="n">
-        <v>99.59950625323012</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K28" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L28" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M28" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U28" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V28" t="n">
-        <v>728.1289842064342</v>
+        <v>2442.464602812336</v>
       </c>
       <c r="W28" t="n">
-        <v>728.1289842064342</v>
+        <v>2442.464602812336</v>
       </c>
       <c r="X28" t="n">
-        <v>728.1289842064342</v>
+        <v>2214.475051914318</v>
       </c>
       <c r="Y28" t="n">
-        <v>728.1289842064342</v>
+        <v>2214.475051914318</v>
       </c>
     </row>
     <row r="29">
@@ -6437,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1526.329725433337</v>
+        <v>1937.591755944065</v>
       </c>
       <c r="C29" t="n">
-        <v>1157.367208492925</v>
+        <v>1568.629239003653</v>
       </c>
       <c r="D29" t="n">
-        <v>799.1015098861748</v>
+        <v>1210.363540396903</v>
       </c>
       <c r="E29" t="n">
-        <v>799.1015098861748</v>
+        <v>824.5752877986586</v>
       </c>
       <c r="F29" t="n">
-        <v>799.1015098861748</v>
+        <v>824.5752877986586</v>
       </c>
       <c r="G29" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I29" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
@@ -6494,19 +6496,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U29" t="n">
-        <v>2634.131784816841</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V29" t="n">
-        <v>2303.06889747327</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W29" t="n">
-        <v>2303.06889747327</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="X29" t="n">
-        <v>2303.06889747327</v>
+        <v>1937.591755944065</v>
       </c>
       <c r="Y29" t="n">
-        <v>1912.929565497459</v>
+        <v>1937.591755944065</v>
       </c>
     </row>
     <row r="30">
@@ -6516,40 +6518,40 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I30" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K30" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L30" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M30" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N30" t="n">
         <v>1748.695370517453</v>
@@ -6564,25 +6566,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X30" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y30" t="n">
         <v>1156.713312237151</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.94298182036445</v>
+        <v>2186.939341837732</v>
       </c>
       <c r="C31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K31" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L31" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M31" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U31" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V31" t="n">
-        <v>473.4444960005474</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W31" t="n">
-        <v>184.0273259635867</v>
+        <v>2407.731920981262</v>
       </c>
       <c r="X31" t="n">
-        <v>53.94298182036445</v>
+        <v>2407.731920981262</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.94298182036445</v>
+        <v>2186.939341837732</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>686.9351304176944</v>
+        <v>1838.152798564255</v>
       </c>
       <c r="C32" t="n">
-        <v>317.9726134772827</v>
+        <v>1469.190281623844</v>
       </c>
       <c r="D32" t="n">
-        <v>317.9726134772827</v>
+        <v>1110.924583017093</v>
       </c>
       <c r="E32" t="n">
-        <v>53.94298182036445</v>
+        <v>725.136330418849</v>
       </c>
       <c r="F32" t="n">
-        <v>53.94298182036445</v>
+        <v>314.1504256292414</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036445</v>
+        <v>314.1504256292414</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S32" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T32" t="n">
-        <v>2520.971603332393</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U32" t="n">
-        <v>2520.971603332393</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V32" t="n">
-        <v>2189.908715988822</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W32" t="n">
-        <v>1837.140060718708</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="X32" t="n">
-        <v>1463.674302457628</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="Y32" t="n">
-        <v>1073.534970481816</v>
+        <v>2224.752638628377</v>
       </c>
     </row>
     <row r="33">
@@ -6753,40 +6755,40 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036469</v>
       </c>
       <c r="J33" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K33" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L33" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M33" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N33" t="n">
         <v>1748.695370517453</v>
@@ -6822,7 +6824,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y33" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="34">
@@ -6832,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>325.6879402326643</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C34" t="n">
-        <v>156.7517573047574</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K34" t="n">
         <v>110.2451748866326</v>
@@ -6865,43 +6867,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V34" t="n">
-        <v>728.1289842064342</v>
+        <v>473.4444960005475</v>
       </c>
       <c r="W34" t="n">
-        <v>728.1289842064342</v>
+        <v>184.0273259635869</v>
       </c>
       <c r="X34" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y34" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1166.959449965771</v>
+        <v>1860.708406770827</v>
       </c>
       <c r="C35" t="n">
-        <v>797.9969330253591</v>
+        <v>1491.745889830415</v>
       </c>
       <c r="D35" t="n">
-        <v>439.7312344186087</v>
+        <v>1133.480191223665</v>
       </c>
       <c r="E35" t="n">
-        <v>53.94298182036445</v>
+        <v>747.6919386254203</v>
       </c>
       <c r="F35" t="n">
-        <v>53.94298182036445</v>
+        <v>336.7060338358128</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I35" t="n">
         <v>53.94298182036445</v>
@@ -6938,16 +6940,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
@@ -6959,28 +6961,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2648.227267610355</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2648.227267610355</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T35" t="n">
-        <v>2648.227267610355</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U35" t="n">
-        <v>2648.227267610355</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V35" t="n">
-        <v>2317.164380266784</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W35" t="n">
-        <v>2317.164380266784</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X35" t="n">
-        <v>1943.698622005704</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y35" t="n">
-        <v>1553.559290029893</v>
+        <v>2247.308246834948</v>
       </c>
     </row>
     <row r="36">
@@ -6996,19 +6998,19 @@
         <v>814.044945935956</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F36" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
         <v>53.94298182036445</v>
@@ -7023,7 +7025,7 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M36" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N36" t="n">
         <v>1748.695370517453</v>
@@ -7038,7 +7040,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S36" t="n">
         <v>2488.762748073963</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>728.1289842064342</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C37" t="n">
-        <v>728.1289842064342</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D37" t="n">
-        <v>578.0123447940985</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E37" t="n">
-        <v>430.0992512117053</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F37" t="n">
-        <v>430.0992512117053</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G37" t="n">
-        <v>261.0994509500377</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H37" t="n">
-        <v>103.3510783825679</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K37" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L37" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M37" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064342</v>
+        <v>2567.064746875</v>
       </c>
       <c r="U37" t="n">
-        <v>728.1289842064342</v>
+        <v>2567.064746875</v>
       </c>
       <c r="V37" t="n">
-        <v>728.1289842064342</v>
+        <v>2312.380258669114</v>
       </c>
       <c r="W37" t="n">
-        <v>728.1289842064342</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X37" t="n">
-        <v>728.1289842064342</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y37" t="n">
-        <v>728.1289842064342</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>390.7161657136784</v>
+        <v>1536.177557778964</v>
       </c>
       <c r="C38" t="n">
-        <v>53.94298182036445</v>
+        <v>1536.177557778964</v>
       </c>
       <c r="D38" t="n">
-        <v>53.94298182036445</v>
+        <v>1177.911859172214</v>
       </c>
       <c r="E38" t="n">
-        <v>53.94298182036445</v>
+        <v>792.1236065739693</v>
       </c>
       <c r="F38" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H38" t="n">
         <v>53.94298182036445</v>
@@ -7172,7 +7174,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
         <v>463.9616490733126</v>
@@ -7202,22 +7204,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T38" t="n">
-        <v>2478.514423990285</v>
+        <v>2649.01181137428</v>
       </c>
       <c r="U38" t="n">
-        <v>2224.752638628377</v>
+        <v>2649.01181137428</v>
       </c>
       <c r="V38" t="n">
-        <v>1893.689751284806</v>
+        <v>2649.01181137428</v>
       </c>
       <c r="W38" t="n">
-        <v>1540.921096014692</v>
+        <v>2296.243156104166</v>
       </c>
       <c r="X38" t="n">
-        <v>1167.455337753612</v>
+        <v>1922.777397843086</v>
       </c>
       <c r="Y38" t="n">
-        <v>777.3160057778002</v>
+        <v>1922.777397843086</v>
       </c>
     </row>
     <row r="39">
@@ -7227,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C39" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E39" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G39" t="n">
         <v>221.4284102424006</v>
@@ -7272,22 +7274,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7366,13 +7368,13 @@
         <v>2697.149091018222</v>
       </c>
       <c r="V40" t="n">
-        <v>2697.149091018222</v>
+        <v>2442.464602812336</v>
       </c>
       <c r="W40" t="n">
-        <v>2407.731920981262</v>
+        <v>2153.047432775375</v>
       </c>
       <c r="X40" t="n">
-        <v>2179.742370083244</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y40" t="n">
         <v>2022.963088632153</v>
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1546.944160717209</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C41" t="n">
-        <v>1268.68094731003</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D41" t="n">
-        <v>1268.68094731003</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="E41" t="n">
-        <v>882.8926947117852</v>
+        <v>737.1647017090463</v>
       </c>
       <c r="F41" t="n">
-        <v>471.9067899221776</v>
+        <v>326.1787969194388</v>
       </c>
       <c r="G41" t="n">
         <v>53.94298182036445</v>
@@ -7409,13 +7411,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7433,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X41" t="n">
-        <v>2323.683332757143</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y41" t="n">
-        <v>1933.544000781331</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="42">
@@ -7464,40 +7466,40 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C42" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L42" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M42" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
         <v>1748.695370517453</v>
@@ -7509,22 +7511,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W42" t="n">
         <v>1572.325111207638</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>728.1289842064342</v>
+        <v>71.00345202677755</v>
       </c>
       <c r="C43" t="n">
-        <v>728.1289842064342</v>
+        <v>71.00345202677755</v>
       </c>
       <c r="D43" t="n">
-        <v>578.0123447940985</v>
+        <v>71.00345202677755</v>
       </c>
       <c r="E43" t="n">
-        <v>430.0992512117053</v>
+        <v>71.00345202677755</v>
       </c>
       <c r="F43" t="n">
-        <v>283.209303713795</v>
+        <v>71.00345202677755</v>
       </c>
       <c r="G43" t="n">
-        <v>283.209303713795</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H43" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I43" t="n">
         <v>53.94298182036445</v>
@@ -7603,16 +7605,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V43" t="n">
-        <v>728.1289842064342</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W43" t="n">
-        <v>728.1289842064342</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X43" t="n">
-        <v>728.1289842064342</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="Y43" t="n">
-        <v>728.1289842064342</v>
+        <v>252.6519168570173</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>833.8914035503838</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C44" t="n">
-        <v>464.928886609972</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D44" t="n">
-        <v>464.928886609972</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E44" t="n">
-        <v>464.928886609972</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F44" t="n">
-        <v>53.94298182036445</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G44" t="n">
         <v>53.94298182036445</v>
@@ -7646,52 +7648,52 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533142</v>
+        <v>75.17723181374775</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733126</v>
+        <v>478.6443448337932</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224074</v>
+        <v>871.6816390050013</v>
       </c>
       <c r="M44" t="n">
-        <v>1362.238747280443</v>
+        <v>1058.381051830409</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977174</v>
+        <v>1685.688719890255</v>
       </c>
       <c r="O44" t="n">
-        <v>2238.843319642689</v>
+        <v>2232.849924657333</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791252</v>
+        <v>2662.164970996627</v>
       </c>
       <c r="Q44" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T44" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U44" t="n">
-        <v>2169.72394915887</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V44" t="n">
-        <v>2169.72394915887</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W44" t="n">
-        <v>1984.096333851397</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X44" t="n">
-        <v>1610.630575590317</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y44" t="n">
-        <v>1220.491243614505</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170833</v>
+        <v>967.3646662469702</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359563</v>
+        <v>792.9116369658432</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747051</v>
+        <v>643.9772273045919</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692495</v>
+        <v>484.7397722991365</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961344</v>
+        <v>338.2052143260214</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424006</v>
+        <v>200.7638166852434</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9856282673424</v>
+        <v>99.84783883004796</v>
       </c>
       <c r="I45" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K45" t="n">
-        <v>384.4474646615928</v>
+        <v>383.3713861261743</v>
       </c>
       <c r="L45" t="n">
-        <v>789.0633827572647</v>
+        <v>887.7329259922928</v>
       </c>
       <c r="M45" t="n">
-        <v>1313.210296315296</v>
+        <v>1067.230262346898</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517453</v>
+        <v>1640.147320825857</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537797</v>
+        <v>2189.58332957858</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.076107152626</v>
+        <v>2613.551098059417</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018222</v>
+        <v>2636.288039261394</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430047</v>
+        <v>2615.176139663581</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073963</v>
+        <v>2465.709350526216</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196742</v>
+        <v>2268.720054686303</v>
       </c>
       <c r="U45" t="n">
-        <v>2061.714576167582</v>
+        <v>2040.581267197469</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.562467935839</v>
+        <v>1805.429158965726</v>
       </c>
       <c r="W45" t="n">
-        <v>1572.325111207638</v>
+        <v>1551.191802237525</v>
       </c>
       <c r="X45" t="n">
-        <v>1364.473611002105</v>
+        <v>1343.340302031992</v>
       </c>
       <c r="Y45" t="n">
-        <v>1156.713312237151</v>
+        <v>1135.580003267038</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2066.718496146435</v>
+        <v>2164.230085763855</v>
       </c>
       <c r="C46" t="n">
-        <v>2022.963088632153</v>
+        <v>2162.82784147374</v>
       </c>
       <c r="D46" t="n">
-        <v>2022.963088632153</v>
+        <v>2012.711202061404</v>
       </c>
       <c r="E46" t="n">
-        <v>2022.963088632153</v>
+        <v>2012.711202061404</v>
       </c>
       <c r="F46" t="n">
-        <v>2022.963088632153</v>
+        <v>1865.821254563494</v>
       </c>
       <c r="G46" t="n">
-        <v>2022.963088632153</v>
+        <v>1697.214409558877</v>
       </c>
       <c r="H46" t="n">
-        <v>2022.963088632153</v>
+        <v>1697.214409558877</v>
       </c>
       <c r="I46" t="n">
-        <v>2022.963088632153</v>
+        <v>1697.214409558877</v>
       </c>
       <c r="J46" t="n">
-        <v>2022.963088632153</v>
+        <v>1697.214409558877</v>
       </c>
       <c r="K46" t="n">
-        <v>2079.265281698421</v>
+        <v>1798.262339154487</v>
       </c>
       <c r="L46" t="n">
-        <v>2206.839139259579</v>
+        <v>1983.095334055306</v>
       </c>
       <c r="M46" t="n">
-        <v>2351.737007977609</v>
+        <v>2188.364934774544</v>
       </c>
       <c r="N46" t="n">
-        <v>2498.624145662038</v>
+        <v>2394.188299610648</v>
       </c>
       <c r="O46" t="n">
-        <v>2618.281896171278</v>
+        <v>2568.283194999247</v>
       </c>
       <c r="P46" t="n">
-        <v>2697.149091018222</v>
+        <v>2693.730771597863</v>
       </c>
       <c r="Q46" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.149091018222</v>
+        <v>2566.671129737625</v>
       </c>
       <c r="S46" t="n">
-        <v>2697.149091018222</v>
+        <v>2566.671129737625</v>
       </c>
       <c r="T46" t="n">
-        <v>2697.149091018222</v>
+        <v>2566.671129737625</v>
       </c>
       <c r="U46" t="n">
-        <v>2697.149091018222</v>
+        <v>2566.671129737625</v>
       </c>
       <c r="V46" t="n">
-        <v>2697.149091018222</v>
+        <v>2566.671129737625</v>
       </c>
       <c r="W46" t="n">
-        <v>2697.149091018222</v>
+        <v>2566.671129737625</v>
       </c>
       <c r="X46" t="n">
-        <v>2469.159540120205</v>
+        <v>2566.671129737625</v>
       </c>
       <c r="Y46" t="n">
-        <v>2248.366960976675</v>
+        <v>2345.878550594095</v>
       </c>
     </row>
   </sheetData>
@@ -8055,19 +8057,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270195</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>125.6774978810002</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>223.6557144812347</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>387.9064735273547</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8307,7 +8309,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>350.4438349360586</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8693,13 +8695,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504503</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>437.346924411984</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8784,10 +8786,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8924,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9003,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9015,7 +9017,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9024,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720731</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9240,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9261,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720731</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9416,7 +9418,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714832</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9477,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9714,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9726,10 +9728,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O24" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9954,7 +9956,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9972,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10197,10 +10199,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093292</v>
       </c>
       <c r="N30" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10364,7 +10366,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714828</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10425,19 +10427,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10662,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10671,10 +10673,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>422.286579409329</v>
       </c>
       <c r="N36" t="n">
-        <v>435.9238900028826</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10838,7 +10840,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714828</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10911,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>359.9065542451756</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11069,7 +11071,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>437.346924411984</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11136,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11145,10 +11147,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>422.2865794093292</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11294,19 +11296,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>256.2713518484393</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>437.346924411984</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11315,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11382,10 +11384,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>359.9065542451756</v>
+        <v>378.0407240669645</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11394,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22553,19 +22555,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>415.1619485273195</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>61.87643319194541</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,28 +22594,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
-        <v>85.9894884579729</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>73.08445501505759</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>93.57458697611361</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>142.9992813870189</v>
       </c>
     </row>
     <row r="3">
@@ -22629,22 +22631,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22671,25 +22673,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>63.52294861638447</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -22711,25 +22713,25 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>139.2305949640501</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>153.551289182031</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22747,19 +22749,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>227.6757534850358</v>
       </c>
       <c r="U4" t="n">
-        <v>231.8063182229441</v>
+        <v>286.3155846423218</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22781,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22793,7 +22795,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>342.0998191902334</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -22829,28 +22831,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>16.1551420398813</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22948,7 +22950,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>128.0571403890127</v>
+        <v>82.85718120047575</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -22963,7 +22965,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22984,7 +22986,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -23018,16 +23020,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>254.934636837554</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -23036,7 +23038,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -23069,7 +23071,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -23081,13 +23083,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>335.3296463957885</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23191,7 +23193,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>11.99007165458451</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -23200,7 +23202,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23227,7 +23229,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>11.62584915701547</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -23261,13 +23263,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>413.784170020795</v>
@@ -23303,25 +23305,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>86.34584229143829</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>30.69118209778748</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,16 +23418,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>128.0571403890127</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>117.3198908784084</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,10 +23436,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R13" t="n">
         <v>146.6651919801579</v>
@@ -23492,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>151.9313162448613</v>
@@ -23540,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>170.102160979652</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>283.2991409305247</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23656,25 +23658,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>86.05160619575676</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R16" t="n">
         <v>146.6651919801579</v>
@@ -23707,13 +23709,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23732,25 +23734,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>16.15514203988175</v>
       </c>
       <c r="H17" t="n">
-        <v>215.8746649210634</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,22 +23779,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23908,10 +23910,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J19" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,16 +23934,16 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R19" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
-        <v>212.1455389500189</v>
+        <v>117.5062691663786</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3958356744439</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23975,13 +23977,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>328.8326777863792</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24014,13 +24016,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>6.842406205821213</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.2241675082893</v>
@@ -24029,13 +24031,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24124,31 +24126,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>96.23367420798925</v>
       </c>
       <c r="C22" t="n">
-        <v>107.5829646831824</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J22" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,16 +24171,16 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2818742419777</v>
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24218,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>19.58227584217786</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>151.9313162448613</v>
@@ -24260,7 +24262,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>211.9953744513446</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24373,19 +24375,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>123.9919488199112</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>10.74592769735792</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
         <v>146.6651919801579</v>
@@ -24427,10 +24429,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24440,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>249.1599642490853</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24452,16 +24454,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>136.1459518703796</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24494,22 +24496,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24607,22 +24609,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>128.0571403890127</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>125.2007583249319</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24658,13 +24660,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24686,19 +24688,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>126.7122761115023</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24734,7 +24736,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>243.3154369437335</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24743,10 +24745,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24838,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>4.910330425104831</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24895,16 +24897,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>96.92615468724708</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24920,19 +24922,19 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>120.5410347319128</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>66.31740339356901</v>
       </c>
       <c r="I32" t="n">
         <v>151.9313162448613</v>
@@ -24965,25 +24967,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25072,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>46.83478528866331</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25132,16 +25134,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>96.92615468724696</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25163,16 +25165,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>285.7800647703624</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>6.04579740102281</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25315,25 +25317,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>86.05160619575682</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25357,22 +25359,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>225.0351054580843</v>
+        <v>96.2516047562944</v>
       </c>
       <c r="U37" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25391,22 +25393,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>31.86743971662668</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>151.9313162448613</v>
@@ -25436,19 +25438,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>168.7924135101549</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25457,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25567,10 +25569,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J40" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R40" t="n">
         <v>146.6651919801579</v>
@@ -25606,16 +25608,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>96.92615468724728</v>
       </c>
       <c r="Y40" t="n">
-        <v>63.37316471551443</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25628,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>89.79231049789979</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25640,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>144.2707130727114</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
@@ -25673,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -25783,31 +25785,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>150.419936754702</v>
       </c>
       <c r="H43" t="n">
-        <v>64.16285195963718</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J43" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R43" t="n">
         <v>146.6651919801579</v>
@@ -25843,7 +25845,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25852,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25871,19 +25873,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>88.92504442304141</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>165.469629563015</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26023,28 +26025,28 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>123.9289676594886</v>
+        <v>165.8585992514139</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>156.1708888417951</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923382</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J46" t="n">
-        <v>45.199959188537</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,19 +26067,19 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>212.1455389500189</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26086,7 +26088,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>781628.703216691</v>
+        <v>493776.9532238223</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>781628.7032166912</v>
+        <v>781628.703216691</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>781628.7032166912</v>
+        <v>781628.703216691</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>781628.703216691</v>
+        <v>781628.7032166912</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>781628.703216691</v>
+        <v>781628.7032166912</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>781628.703216691</v>
+        <v>781628.7032166912</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>781628.7032166912</v>
+        <v>781628.703216691</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>781628.7032166912</v>
+        <v>781628.703216691</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>781628.7032166912</v>
+        <v>781628.7032166909</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>781628.703216691</v>
+        <v>781628.7032166909</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>781628.7032166912</v>
+        <v>781628.7032166909</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>781628.7032166912</v>
+        <v>781628.7032166909</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>781628.7032166912</v>
+        <v>781628.7032166909</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>781628.7032166909</v>
+        <v>792815.2339921144</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>274694.9795149697</v>
+        <v>168322.7414503685</v>
       </c>
       <c r="C2" t="n">
         <v>274694.9795149698</v>
       </c>
       <c r="D2" t="n">
-        <v>274694.9795149699</v>
+        <v>274694.9795149697</v>
       </c>
       <c r="E2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.9795149696</v>
       </c>
       <c r="F2" t="n">
         <v>274694.9795149697</v>
       </c>
       <c r="G2" t="n">
-        <v>274694.9795149696</v>
+        <v>274694.9795149697</v>
       </c>
       <c r="H2" t="n">
         <v>274694.9795149697</v>
       </c>
       <c r="I2" t="n">
+        <v>274694.9795149696</v>
+      </c>
+      <c r="J2" t="n">
         <v>274694.9795149697</v>
       </c>
-      <c r="J2" t="n">
-        <v>274694.9795149698</v>
-      </c>
       <c r="K2" t="n">
-        <v>274694.9795149698</v>
+        <v>274694.9795149697</v>
       </c>
       <c r="L2" t="n">
         <v>274694.9795149697</v>
       </c>
       <c r="M2" t="n">
-        <v>274694.9795149696</v>
+        <v>274694.9795149697</v>
       </c>
       <c r="N2" t="n">
         <v>274694.9795149697</v>
       </c>
       <c r="O2" t="n">
-        <v>274694.9795149696</v>
+        <v>274694.9795149697</v>
       </c>
       <c r="P2" t="n">
-        <v>274694.9795149699</v>
+        <v>284076.0793435333</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>126293.3414468129</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>440708.0835147456</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26387,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>72254.69487113909</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>102466.1171957467</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>143586.3319036564</v>
       </c>
     </row>
     <row r="4">
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44802.65617556861</v>
+        <v>42169.81622231289</v>
       </c>
       <c r="C4" t="n">
         <v>44802.65617556861</v>
       </c>
       <c r="D4" t="n">
-        <v>44802.6561755686</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="E4" t="n">
         <v>44802.65617556861</v>
@@ -26433,10 +26435,10 @@
         <v>44802.6561755686</v>
       </c>
       <c r="H4" t="n">
-        <v>44802.65617556861</v>
+        <v>44802.6561755686</v>
       </c>
       <c r="I4" t="n">
-        <v>44802.65617556861</v>
+        <v>44802.6561755686</v>
       </c>
       <c r="J4" t="n">
         <v>44802.65617556861</v>
@@ -26448,7 +26450,7 @@
         <v>44802.65617556861</v>
       </c>
       <c r="M4" t="n">
-        <v>44802.6561755686</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="N4" t="n">
         <v>44802.65617556861</v>
@@ -26457,7 +26459,7 @@
         <v>44802.65617556861</v>
       </c>
       <c r="P4" t="n">
-        <v>44802.65617556861</v>
+        <v>30816.27558774721</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26485,10 +26487,10 @@
         <v>49231.47806340946</v>
       </c>
       <c r="H5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
         <v>49231.47806340946</v>
@@ -26497,7 +26499,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="L5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="M5" t="n">
         <v>49231.47806340946</v>
@@ -26509,7 +26511,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340946</v>
+        <v>53934.4451708468</v>
       </c>
     </row>
     <row r="6">
@@ -26519,37 +26521,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-442934.6339385527</v>
+        <v>-51321.79573553753</v>
       </c>
       <c r="C6" t="n">
+        <v>-293674.8382387538</v>
+      </c>
+      <c r="D6" t="n">
         <v>147033.2452759917</v>
       </c>
-      <c r="D6" t="n">
-        <v>147033.2452759918</v>
-      </c>
       <c r="E6" t="n">
+        <v>180660.8452759915</v>
+      </c>
+      <c r="F6" t="n">
         <v>180660.8452759917</v>
       </c>
-      <c r="F6" t="n">
-        <v>180660.8452759916</v>
-      </c>
       <c r="G6" t="n">
-        <v>180660.8452759916</v>
+        <v>180660.8452759917</v>
       </c>
       <c r="H6" t="n">
         <v>180660.8452759917</v>
       </c>
       <c r="I6" t="n">
-        <v>180660.8452759917</v>
+        <v>180660.8452759916</v>
       </c>
       <c r="J6" t="n">
-        <v>4237.62608339882</v>
+        <v>108406.1504048526</v>
       </c>
       <c r="K6" t="n">
-        <v>180660.8452759917</v>
+        <v>78194.72808024501</v>
       </c>
       <c r="L6" t="n">
-        <v>180660.8452759917</v>
+        <v>180660.8452759916</v>
       </c>
       <c r="M6" t="n">
         <v>180660.8452759916</v>
@@ -26558,10 +26560,10 @@
         <v>180660.8452759916</v>
       </c>
       <c r="O6" t="n">
-        <v>180660.8452759915</v>
+        <v>180660.8452759916</v>
       </c>
       <c r="P6" t="n">
-        <v>180660.8452759918</v>
+        <v>55739.02668128295</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>35.02126071912529</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26768,7 +26770,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="N3" t="n">
         <v>377.7436642170866</v>
@@ -26777,7 +26779,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170866</v>
+        <v>593.4761003380651</v>
       </c>
     </row>
     <row r="4">
@@ -26787,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26799,16 +26801,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
+        <v>674.2872727545555</v>
+      </c>
+      <c r="G4" t="n">
+        <v>674.2872727545555</v>
+      </c>
+      <c r="H4" t="n">
+        <v>674.2872727545555</v>
+      </c>
+      <c r="I4" t="n">
         <v>674.2872727545556</v>
-      </c>
-      <c r="G4" t="n">
-        <v>674.2872727545556</v>
-      </c>
-      <c r="H4" t="n">
-        <v>674.2872727545557</v>
-      </c>
-      <c r="I4" t="n">
-        <v>674.2872727545557</v>
       </c>
       <c r="J4" t="n">
         <v>674.2872727545556</v>
@@ -26817,7 +26819,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="M4" t="n">
         <v>674.2872727545556</v>
@@ -26957,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>35.02126071912529</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>342.7224034979613</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>215.7324361209785</v>
       </c>
     </row>
     <row r="4">
@@ -27009,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>398.1307590522002</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>398.1307590522002</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27255,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>398.1307590522002</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>0.140788987815579</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>1.441855221466299</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>5.427767452760113</v>
       </c>
       <c r="J2" t="n">
-        <v>128.8865178727436</v>
+        <v>11.94928935461251</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>17.90888720884597</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>22.217558194707</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>24.7213143567723</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338304</v>
+        <v>25.12133106840331</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>23.72136057081215</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>20.24563243411504</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044137</v>
+        <v>15.20362680796961</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>8.84383625587037</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>3.208229059847509</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>0.6163037941626972</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.0753287494713261</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>0.727517133052018</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>2.593555628727676</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>7.116914878779982</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>12.16394109335883</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478007</v>
+        <v>16.35591992358772</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983122</v>
+        <v>19.08658709192328</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>19.59175225833406</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>17.92262575689047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>14.38448725650261</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>9.615648792164365</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>4.676990252263565</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>1.399198482504675</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>0.3036277226497748</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.004955838781008299</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.06315309310006199</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>0.5614884095623698</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>1.89918574522732</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>4.464923682174383</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>7.337241180170838</v>
       </c>
       <c r="L4" t="n">
-        <v>101.2724571246924</v>
+        <v>9.389142586894673</v>
       </c>
       <c r="M4" t="n">
-        <v>106.777606591725</v>
+        <v>9.899534402948808</v>
       </c>
       <c r="N4" t="n">
-        <v>104.2386737666594</v>
+        <v>9.66414560139404</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>8.926402650179675</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>7.638079550938405</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>5.28821036858792</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>2.83959271339006</v>
       </c>
       <c r="S4" t="n">
-        <v>11.87105908695336</v>
+        <v>1.100586177025626</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>0.2698359432457194</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.003444714169094295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,13 +31752,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
@@ -31774,22 +31776,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q11" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S11" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31829,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I12" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31862,16 +31864,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T12" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J13" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
@@ -31932,13 +31934,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R13" t="n">
         <v>30.62819939701163</v>
@@ -31947,7 +31949,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U13" t="n">
         <v>0.0371551145131561</v>
@@ -31987,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
@@ -32011,22 +32013,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q14" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S14" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32066,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I15" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32099,16 +32101,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T15" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J16" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
@@ -32169,13 +32171,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R16" t="n">
         <v>30.62819939701163</v>
@@ -32184,7 +32186,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U16" t="n">
         <v>0.0371551145131561</v>
@@ -32224,13 +32226,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
@@ -32248,22 +32250,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q17" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S17" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32303,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I18" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32336,16 +32338,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S18" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T18" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J19" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
@@ -32406,13 +32408,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R19" t="n">
         <v>30.62819939701163</v>
@@ -32421,7 +32423,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U19" t="n">
         <v>0.0371551145131561</v>
@@ -32461,13 +32463,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H20" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
@@ -32485,22 +32487,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O20" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P20" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q20" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S20" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32540,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I21" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32573,16 +32575,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S21" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T21" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I22" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J22" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L22" t="n">
         <v>101.2724571246924</v>
@@ -32643,13 +32645,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R22" t="n">
         <v>30.62819939701163</v>
@@ -32658,7 +32660,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T22" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U22" t="n">
         <v>0.0371551145131561</v>
@@ -33652,19 +33654,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L35" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N35" t="n">
         <v>270.9617944338304</v>
@@ -33679,13 +33681,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33725,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I36" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33752,22 +33754,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q36" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S36" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I37" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K37" t="n">
         <v>79.14039391302239</v>
@@ -33828,16 +33830,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P37" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
@@ -33883,13 +33885,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H38" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
@@ -33907,22 +33909,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q38" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S38" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33962,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I39" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33995,16 +33997,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S39" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T39" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I40" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J40" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34065,13 +34067,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R40" t="n">
         <v>30.62819939701163</v>
@@ -34080,7 +34082,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U40" t="n">
         <v>0.0371551145131561</v>
@@ -34120,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
@@ -34144,22 +34146,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S41" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34199,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I42" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34232,16 +34234,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T42" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J43" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34302,13 +34304,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R43" t="n">
         <v>30.62819939701163</v>
@@ -34317,7 +34319,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340046</v>
+        <v>2.38583356919825</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935141</v>
+        <v>24.43391804055158</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554467</v>
+        <v>91.97984867651562</v>
       </c>
       <c r="J44" t="n">
-        <v>128.8865178727436</v>
+        <v>202.4946418937401</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081577</v>
+        <v>303.4869768779021</v>
       </c>
       <c r="L44" t="n">
-        <v>239.6413398630669</v>
+        <v>376.5024309712531</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405367</v>
+        <v>418.9314987074825</v>
       </c>
       <c r="N44" t="n">
-        <v>270.9617944338304</v>
+        <v>425.710248335967</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119866</v>
+        <v>401.9861157822519</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954667</v>
+        <v>343.0858495426701</v>
       </c>
       <c r="Q44" t="n">
-        <v>163.9882055044137</v>
+        <v>257.6431848457577</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633797</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727382</v>
+        <v>54.36718245810517</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473553</v>
+        <v>10.44398644916534</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1908666855358599</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.812505240014111</v>
+        <v>1.276533498840366</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188914</v>
+        <v>12.32862615985301</v>
       </c>
       <c r="I45" t="n">
-        <v>27.97441286890689</v>
+        <v>43.95082441182841</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396476</v>
+        <v>120.6044214847383</v>
       </c>
       <c r="K45" t="n">
-        <v>131.2017781649102</v>
+        <v>206.1321659070429</v>
       </c>
       <c r="L45" t="n">
-        <v>176.4169820478007</v>
+        <v>277.1701353512822</v>
       </c>
       <c r="M45" t="n">
-        <v>205.8702969983122</v>
+        <v>323.4444746842454</v>
       </c>
       <c r="N45" t="n">
-        <v>211.31907117367</v>
+        <v>332.0050874900653</v>
       </c>
       <c r="O45" t="n">
-        <v>193.3156655923047</v>
+        <v>303.7197925947077</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479577</v>
+        <v>243.7619099671574</v>
       </c>
       <c r="Q45" t="n">
-        <v>103.7155811639065</v>
+        <v>162.9483813607457</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034982</v>
+        <v>79.25705355080804</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131473</v>
+        <v>23.71104985784626</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372665</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.08398246702897151</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078611</v>
+        <v>1.070202803888314</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644442</v>
+        <v>9.515075838207016</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492005</v>
+        <v>32.18391704784131</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813577</v>
+        <v>75.66333823490379</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302239</v>
+        <v>124.3381075790241</v>
       </c>
       <c r="L46" t="n">
-        <v>101.2724571246924</v>
+        <v>159.1099695889954</v>
       </c>
       <c r="M46" t="n">
-        <v>106.777606591725</v>
+        <v>167.7591540676927</v>
       </c>
       <c r="N46" t="n">
-        <v>104.2386737666594</v>
+        <v>163.7702163441091</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175844</v>
+        <v>151.2683017714137</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383801</v>
+        <v>129.436164572092</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678008</v>
+        <v>89.61489115104783</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701163</v>
+        <v>48.12020970937817</v>
       </c>
       <c r="S46" t="n">
-        <v>11.87105908695336</v>
+        <v>18.65071613685361</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197224</v>
+        <v>4.572684707522795</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.0583746983939081</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>121.9644487350302</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>204.1123577751702</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>243.8886146223321</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>233.0551918837966</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>174.4233304118708</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>110.8113448503281</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.9975062898689</v>
+        <v>5.212927593424808</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>100.6082676511396</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>269.1887005891755</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>198.8728484821095</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>128.8624823850085</v>
+        <v>36.97916784721081</v>
       </c>
       <c r="M4" t="n">
-        <v>146.3614835535656</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="N4" t="n">
-        <v>148.370846145888</v>
+        <v>53.79631798062263</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557981</v>
+        <v>33.51153056421935</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>4.916638815831893</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34948,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35027,7 +35029,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>401.1632560839189</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35094,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35264,13 +35266,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35413,19 +35415,19 @@
         <v>297.2230414343419</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435301</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M11" t="n">
         <v>485.8144648060965</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q11" t="n">
         <v>153.9975062898689</v>
@@ -35486,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
@@ -35501,13 +35503,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q12" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
@@ -35583,7 +35585,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K14" t="n">
         <v>297.2230414343419</v>
@@ -35659,10 +35661,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q14" t="n">
         <v>153.9975062898689</v>
@@ -35723,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35735,16 +35737,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P15" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
@@ -35820,7 +35822,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35881,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181304</v>
       </c>
       <c r="K17" t="n">
         <v>297.2230414343419</v>
@@ -35896,10 +35898,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q17" t="n">
         <v>153.9975062898689</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35975,13 +35977,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P18" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
@@ -36057,7 +36059,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181304</v>
       </c>
       <c r="K20" t="n">
         <v>297.2230414343419</v>
@@ -36133,10 +36135,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P20" t="n">
-        <v>308.9376163116803</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q20" t="n">
         <v>153.9975062898689</v>
@@ -36212,7 +36214,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P21" t="n">
         <v>339.6412258735646</v>
@@ -36279,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L22" t="n">
         <v>128.8624823850085</v>
@@ -36294,7 +36296,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36434,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36446,10 +36448,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O24" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
         <v>339.6412258735646</v>
@@ -36674,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36692,7 +36694,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36917,10 +36919,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M30" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856231</v>
       </c>
       <c r="N30" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
@@ -37145,19 +37147,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L33" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M33" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
@@ -37303,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K35" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O35" t="n">
         <v>406.5635087530452</v>
@@ -37391,16 +37393,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M36" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856228</v>
       </c>
       <c r="N36" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q36" t="n">
         <v>173.8110948137341</v>
@@ -37555,10 +37557,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q38" t="n">
         <v>153.9975062898689</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37631,10 +37633,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>439.8839133355123</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P39" t="n">
         <v>339.6412258735646</v>
@@ -37701,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
@@ -37716,7 +37718,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37777,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K41" t="n">
         <v>297.2230414343419</v>
@@ -37789,13 +37791,13 @@
         <v>485.8144648060965</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q41" t="n">
         <v>153.9975062898689</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37865,13 +37867,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M42" t="n">
-        <v>486.0228424856231</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735646</v>
@@ -37938,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37953,7 +37955,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38014,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.937228518131</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K44" t="n">
-        <v>297.2230414343419</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435301</v>
+        <v>397.0073678497051</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060965</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492235</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530452</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116798</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.9975062898689</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>257.8255762031298</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L45" t="n">
-        <v>408.7029475713857</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M45" t="n">
-        <v>529.4413268262938</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N45" t="n">
-        <v>439.8839133355123</v>
+        <v>578.7040994736965</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245898</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735646</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q45" t="n">
-        <v>173.8110948137341</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,25 +38177,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713954</v>
+        <v>102.0686157531412</v>
       </c>
       <c r="L46" t="n">
-        <v>128.8624823850085</v>
+        <v>186.6999948493115</v>
       </c>
       <c r="M46" t="n">
-        <v>146.3614835535656</v>
+        <v>207.3430310295333</v>
       </c>
       <c r="N46" t="n">
-        <v>148.370846145888</v>
+        <v>207.9023887233377</v>
       </c>
       <c r="O46" t="n">
-        <v>120.8664146557981</v>
+        <v>175.8534296854534</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873149</v>
+        <v>126.7147238369855</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>3.452847899353443</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
